--- a/public/techRadarSourceDev.xlsx
+++ b/public/techRadarSourceDev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\tech-radar\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEAD234-F2FA-4318-B4D8-DF4F74D77F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E471CE-8CB7-4CEC-A161-AAF0ECFE3912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D0E5AF86-51E4-4329-BFCB-5FE4200F8556}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{D0E5AF86-51E4-4329-BFCB-5FE4200F8556}"/>
   </bookViews>
   <sheets>
     <sheet name="radar" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="510">
   <si>
     <t>Ноль</t>
   </si>
@@ -165,9 +165,6 @@
     <t>opentelemetry</t>
   </si>
   <si>
-    <t>centry</t>
-  </si>
-  <si>
     <t>typescript</t>
   </si>
   <si>
@@ -186,15 +183,9 @@
     <t>eslint complexity rules</t>
   </si>
   <si>
-    <t>playwrite</t>
-  </si>
-  <si>
     <t>testcafe</t>
   </si>
   <si>
-    <t>openspec first</t>
-  </si>
-  <si>
     <t>drawio</t>
   </si>
   <si>
@@ -336,9 +327,6 @@
     <t>graphql-request</t>
   </si>
   <si>
-    <t>i18next</t>
-  </si>
-  <si>
     <t>jwt-decode</t>
   </si>
   <si>
@@ -645,9 +633,6 @@
     <t>kubernetes</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/chatgpt</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/claude</t>
   </si>
   <si>
@@ -657,9 +642,6 @@
     <t>https://www.npmjs.com/package/@langchain/openai</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/openspec first</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/microfrontends</t>
   </si>
   <si>
@@ -723,9 +705,6 @@
     <t>https://www.npmjs.com/package/dayjs</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/drawio</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/dynosareus</t>
   </si>
   <si>
@@ -876,9 +855,6 @@
     <t>https://www.npmjs.com/package/eslint complexity rules</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/i18next</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/next-i18next</t>
   </si>
   <si>
@@ -945,9 +921,6 @@
     <t>https://www.npmjs.com/package/zustand</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/centry</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/jaeger</t>
   </si>
   <si>
@@ -972,12 +945,6 @@
     <t>https://www.npmjs.com/package/newman</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/playwrite</t>
-  </si>
-  <si>
-    <t>https://www.npmjs.com/package/postman</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/puppeteer</t>
   </si>
   <si>
@@ -990,9 +957,6 @@
     <t>https://www.npmjs.com/package/graphql-request</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/rest</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/websocket</t>
   </si>
   <si>
@@ -1011,27 +975,15 @@
     <t>https://www.npmjs.com/package/isomorphic-dompurify</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/pluntuml</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/webstorm</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/docker</t>
-  </si>
-  <si>
-    <t>https://www.npmjs.com/package/rancher desktop</t>
-  </si>
-  <si>
     <t>https://www.npmjs.com/package/docker desktop</t>
   </si>
   <si>
     <t>https://www.npmjs.com/package/podman</t>
   </si>
   <si>
-    <t>https://www.npmjs.com/package/kubernetes</t>
-  </si>
-  <si>
     <t>ChatGPT is OpenAI’s large‑language‑model API providing text and multimodal generation capabilities.</t>
   </si>
   <si>
@@ -1408,13 +1360,227 @@
   </si>
   <si>
     <t>Техники, которые могут использоваться при разработке. Например SOLID.</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/</t>
+  </si>
+  <si>
+    <t>https://alfagen.moscow.alfaintra.net/</t>
+  </si>
+  <si>
+    <t>alfagen</t>
+  </si>
+  <si>
+    <t>Аналог ChatGPT</t>
+  </si>
+  <si>
+    <t>https://swagger.io/resources/articles/adopting-an-api-first-approach/</t>
+  </si>
+  <si>
+    <t>open api spec first</t>
+  </si>
+  <si>
+    <t>More speed and support workplaces from scratch</t>
+  </si>
+  <si>
+    <t>https://nextjs.org/docs/app/api-reference/turbopack</t>
+  </si>
+  <si>
+    <t>turbopack</t>
+  </si>
+  <si>
+    <t>Turbopack is an incremental bundler optimized for JavaScript and TypeScript, written in Rust, and built into Next.js. You can use Turbopack with both the Pages and App Router for a much faster local development experience.</t>
+  </si>
+  <si>
+    <t>https://www.drawio.com/</t>
+  </si>
+  <si>
+    <t>https://plantuml.com</t>
+  </si>
+  <si>
+    <t>miro</t>
+  </si>
+  <si>
+    <t>https://miro.com</t>
+  </si>
+  <si>
+    <t>Miro provides a visual workspace for innovation that enables distributed teams of any size to dream, design, and build the future together</t>
+  </si>
+  <si>
+    <t>https://www.docker.com/</t>
+  </si>
+  <si>
+    <t>https://rancherdesktop.io/</t>
+  </si>
+  <si>
+    <t>https://kubernetes.io/</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-i18next</t>
+  </si>
+  <si>
+    <t>react-i18next</t>
+  </si>
+  <si>
+    <t>не используется</t>
+  </si>
+  <si>
+    <t>sentry</t>
+  </si>
+  <si>
+    <t>https://docs.sentry.io/platforms/javascript/guides/react/</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/playwright</t>
+  </si>
+  <si>
+    <t>playwright</t>
+  </si>
+  <si>
+    <t>https://www.postman.com/</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/REST</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/tailwindcss</t>
+  </si>
+  <si>
+    <t>tailwindcss</t>
+  </si>
+  <si>
+    <t>A utility-first CSS framework for rapidly building custom user interfaces.</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/shadcn</t>
+  </si>
+  <si>
+    <t>shadcn</t>
+  </si>
+  <si>
+    <t>shadcn/ui is a set of beautifully-designed, accessible components and a code distribution platform. Works with your favorite frameworks and AI models. Open Source. Open Code. This is not a component library. It is how you build your component library.</t>
+  </si>
+  <si>
+    <t>https://stoplight.io/</t>
+  </si>
+  <si>
+    <t>stoplight</t>
+  </si>
+  <si>
+    <t>Modern customers demand intuitive and frictionless digital experiences that you can only achieve with APIs. Stoplight is the tool with patented technology to create high-quality APIs at any scale. Design-first to develop better.
+Бесплатный визивигдля openapi - https://github.com/stoplightio/studio/releases</t>
+  </si>
+  <si>
+    <t>msw</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@alfalab/core-component</t>
+  </si>
+  <si>
+    <t>@alfalab/core-component</t>
+  </si>
+  <si>
+    <t>Библиотека React компонентов для создания веб-интерфейсов</t>
+  </si>
+  <si>
+    <t>mock</t>
+  </si>
+  <si>
+    <t>codegen, mock</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/msw</t>
+  </si>
+  <si>
+    <t>Mock Service Worker. Industry standard API mocking for JavaScript.</t>
+  </si>
+  <si>
+    <t>one-2-one</t>
+  </si>
+  <si>
+    <t>менторинг</t>
+  </si>
+  <si>
+    <t>делегирование</t>
+  </si>
+  <si>
+    <t>soft-skills</t>
+  </si>
+  <si>
+    <t>обратная связь</t>
+  </si>
+  <si>
+    <t>эмоциональный интеллект</t>
+  </si>
+  <si>
+    <t>Методика STAR</t>
+  </si>
+  <si>
+    <t>Методика 5 почему</t>
+  </si>
+  <si>
+    <t>критическое мышление</t>
+  </si>
+  <si>
+    <t>коучинг</t>
+  </si>
+  <si>
+    <t>составление дизайнов</t>
+  </si>
+  <si>
+    <t>hard-skils</t>
+  </si>
+  <si>
+    <t>составление архитектуры</t>
+  </si>
+  <si>
+    <t>выбор \ сравнение технологиё</t>
+  </si>
+  <si>
+    <t>постановка задач</t>
+  </si>
+  <si>
+    <t>депомозиция задач</t>
+  </si>
+  <si>
+    <t>приоритезация задач</t>
+  </si>
+  <si>
+    <t>ситуационной лидерство</t>
+  </si>
+  <si>
+    <t>оценка задач</t>
+  </si>
+  <si>
+    <t>Методика RICE</t>
+  </si>
+  <si>
+    <t>Метод SMART</t>
+  </si>
+  <si>
+    <t>Методика Closed Loop Communication</t>
+  </si>
+  <si>
+    <t>Постановщик формулирует задачу
+Исполнитель проговаривает её вслух своими словами
+Постановщик подтверждает или корректирует понимание
+Задача считается принятой только после подтверждения</t>
+  </si>
+  <si>
+    <t>Методика Story Points</t>
+  </si>
+  <si>
+    <t>Учитывает: сложность, риск, неопределённость</t>
+  </si>
+  <si>
+    <t>Ситуационного лидерство (Hersey - Blanchard model). Стадии описывают как: Директивная → Наставническая → Поддерживающая → Делегирующая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1453,6 +1619,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1512,7 +1685,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1529,6 +1702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
@@ -1550,15 +1724,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}" name="Таблица1" displayName="Таблица1" ref="A1:I1048560" totalsRowShown="0" headerRowCellStyle="Акцент1">
-  <autoFilter ref="A1:I1048560" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}" name="Таблица1" displayName="Таблица1" ref="A1:I1048573" totalsRowShown="0" headerRowCellStyle="Акцент1">
+  <autoFilter ref="A1:I1048573" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I153">
-    <sortCondition ref="A2:A153"/>
-    <sortCondition ref="B2:B153"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I157">
+    <sortCondition ref="A2:A157"/>
+    <sortCondition ref="B2:B157"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66BF8F95-14AE-4F5F-AF21-8C5AC5095BBF}" name="tags"/>
@@ -1892,11 +2066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E083F0B-9B6B-4AE1-B88F-228D13850335}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1914,62 +2088,62 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>441</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1978,44 +2152,41 @@
         <v>8</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" t="s">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -2024,58 +2195,61 @@
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>394</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>337</v>
+      <c r="G6" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2084,38 +2258,38 @@
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -2123,45 +2297,42 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s">
         <v>365</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>208</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -2170,21 +2341,21 @@
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2193,41 +2364,44 @@
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>349</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -2235,45 +2409,42 @@
       <c r="F15" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -2281,20 +2452,22 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -2304,264 +2477,264 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>349</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>136</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>367</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>349</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>399</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>382</v>
+        <v>448</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>365</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>369</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>365</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>222</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="E29" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>481</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="E30" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -2570,330 +2743,331 @@
     </row>
     <row r="32" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s">
+        <v>345</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" t="s">
+        <v>345</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
         <v>163</v>
       </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>365</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" t="s">
-        <v>361</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" t="s">
+        <v>345</v>
+      </c>
+      <c r="F35" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E33" t="s">
-        <v>361</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" t="s">
-        <v>361</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>406</v>
+      <c r="G35" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>323</v>
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" t="s">
-        <v>365</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>358</v>
+      <c r="G38" s="5" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>452</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>328</v>
+        <v>451</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>359</v>
+        <v>8</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>365</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" t="s">
-        <v>365</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>363</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>231</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -2902,577 +3076,576 @@
     </row>
     <row r="48" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>365</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" t="s">
-        <v>361</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="5" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E51" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>349</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E53" t="s">
-        <v>361</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>349</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>384</v>
+        <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>385</v>
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>365</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E56" t="s">
-        <v>361</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>365</v>
+        <v>125</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E57" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>241</v>
+        <v>368</v>
       </c>
       <c r="E58" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>242</v>
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>349</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>419</v>
-      </c>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>349</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>420</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>365</v>
+        <v>184</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="E67" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" t="s">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E70" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E71" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E72" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E73" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E74" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
         <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -3481,324 +3654,327 @@
     </row>
     <row r="76" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E79" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E80" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E81" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E82" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>349</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" t="s">
+        <v>345</v>
+      </c>
+      <c r="F83" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
         <v>66</v>
       </c>
-      <c r="C83" t="s">
-        <v>365</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E83" t="s">
-        <v>361</v>
-      </c>
-      <c r="F83" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" t="s">
-        <v>120</v>
-      </c>
       <c r="C84" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E84" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" t="s">
+        <v>349</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" t="s">
-        <v>125</v>
-      </c>
-      <c r="C85" t="s">
-        <v>365</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E85" t="s">
-        <v>361</v>
-      </c>
-      <c r="F85" t="s">
-        <v>7</v>
-      </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>349</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E86" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>349</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>349</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" t="s">
-        <v>365</v>
+        <v>165</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -3807,39 +3983,38 @@
         <v>7</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -3848,144 +4023,149 @@
         <v>7</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>131</v>
+      </c>
+      <c r="C94" t="s">
+        <v>349</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>417</v>
-      </c>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E95" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>375</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>374</v>
+        <v>115</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>386</v>
+        <v>269</v>
       </c>
       <c r="E97" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
-      </c>
-      <c r="C98" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="E98" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98"/>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H98" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>370</v>
-      </c>
-      <c r="C99" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" t="s">
-        <v>371</v>
+        <v>104</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F99" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H99" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -3995,201 +4175,201 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
-      </c>
-      <c r="C101" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="E101" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="C102" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="E102" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>283</v>
+        <v>354</v>
+      </c>
+      <c r="C103" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" t="s">
+        <v>355</v>
       </c>
       <c r="E103" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>32</v>
       </c>
-      <c r="B105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E105" t="s">
-        <v>361</v>
-      </c>
-      <c r="F105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>151</v>
-      </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>95</v>
+      </c>
+      <c r="C106" t="s">
+        <v>349</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" t="s">
-        <v>365</v>
+        <v>117</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
       </c>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
@@ -4198,568 +4378,570 @@
         <v>7</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" t="s">
+        <v>349</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E111" t="s">
+        <v>345</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" t="s">
         <v>73</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C112" t="s">
+        <v>349</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E112" t="s">
+        <v>345</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" t="s">
+        <v>349</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E113" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E114" t="s">
         <v>4</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F114" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>380</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="G114" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H115" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>364</v>
+      </c>
+      <c r="B116" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D116" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E116" t="s">
         <v>4</v>
       </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>380</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D117" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" t="s">
         <v>4</v>
-      </c>
-      <c r="F113" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>170</v>
-      </c>
-      <c r="B114" t="s">
-        <v>65</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E114" t="s">
-        <v>361</v>
-      </c>
-      <c r="F114" t="s">
-        <v>7</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>170</v>
-      </c>
-      <c r="B115" t="s">
-        <v>182</v>
-      </c>
-      <c r="C115" t="s">
-        <v>365</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E115" t="s">
-        <v>361</v>
-      </c>
-      <c r="F115" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>171</v>
-      </c>
-      <c r="B116" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>144</v>
-      </c>
-      <c r="B117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" t="s">
-        <v>365</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s">
-        <v>361</v>
       </c>
       <c r="F117" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E118" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" t="s">
+        <v>349</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E119" t="s">
+        <v>345</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" t="s">
         <v>29</v>
       </c>
-      <c r="C118" t="s">
-        <v>365</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s">
-        <v>361</v>
-      </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>144</v>
-      </c>
-      <c r="B119" t="s">
-        <v>27</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>143</v>
-      </c>
-      <c r="B120" t="s">
-        <v>95</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E120" t="s">
-        <v>361</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>143</v>
-      </c>
-      <c r="B121" t="s">
-        <v>378</v>
-      </c>
-      <c r="D121" t="s">
-        <v>377</v>
-      </c>
-      <c r="E121" t="s">
-        <v>361</v>
-      </c>
-      <c r="F121" t="s">
-        <v>7</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" t="s">
-        <v>35</v>
-      </c>
       <c r="C122" t="s">
-        <v>365</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D122" s="2"/>
       <c r="E122" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" t="s">
-        <v>365</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>297</v>
+        <v>27</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="E123" t="s">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" t="s">
-        <v>365</v>
+        <v>92</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E124" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
       </c>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
-      </c>
-      <c r="C125" t="s">
-        <v>365</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>299</v>
+        <v>362</v>
+      </c>
+      <c r="D125" t="s">
+        <v>361</v>
       </c>
       <c r="E125" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F125" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" t="s">
+        <v>349</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E126" t="s">
+        <v>345</v>
+      </c>
+      <c r="F126" t="s">
         <v>9</v>
       </c>
-      <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" t="s">
-        <v>67</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E126" t="s">
-        <v>361</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" t="s">
+        <v>349</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" t="s">
+        <v>345</v>
+      </c>
+      <c r="F127" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>152</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E128" t="s">
+        <v>345</v>
+      </c>
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="s">
+        <v>349</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" t="s">
+        <v>345</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>64</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E130" t="s">
+        <v>345</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" t="s">
         <v>15</v>
       </c>
-      <c r="C127" t="s">
-        <v>365</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s">
-        <v>361</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="C131" t="s">
+        <v>349</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s">
+        <v>345</v>
+      </c>
+      <c r="F131" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" t="s">
-        <v>41</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B129" t="s">
-        <v>85</v>
-      </c>
-      <c r="C129" t="s">
-        <v>365</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" t="s">
-        <v>106</v>
-      </c>
-      <c r="C130" t="s">
-        <v>365</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>157</v>
-      </c>
-      <c r="B131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" t="s">
-        <v>365</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>8</v>
-      </c>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>110</v>
-      </c>
-      <c r="C132" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="C133" t="s">
+        <v>349</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>102</v>
+      </c>
+      <c r="C134" t="s">
+        <v>349</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
       </c>
       <c r="F134" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -4768,142 +4950,147 @@
         <v>7</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
       </c>
       <c r="F140" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
-      </c>
-      <c r="C141" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="E141" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="E142" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="C143" t="s">
+        <v>349</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="E143" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>390</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G143" s="2"/>
     </row>
     <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C144" t="s">
-        <v>365</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="E144" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>349</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E145" t="s">
         <v>4</v>
@@ -4911,364 +5098,794 @@
       <c r="F145" t="s">
         <v>10</v>
       </c>
-      <c r="G145" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>318</v>
+        <v>466</v>
       </c>
       <c r="E146" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" t="s">
-        <v>365</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="E147" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H147" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C148" t="s">
-        <v>365</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>319</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D148" s="2"/>
       <c r="E148" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
-      </c>
-      <c r="C149" t="s">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E149" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H149" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>113</v>
-      </c>
-      <c r="C150" t="s">
-        <v>365</v>
+        <v>101</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E150" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F150" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H150" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>100</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>322</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>349</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F151" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C152" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="E152" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
       </c>
-      <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C153" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="E153" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>109</v>
+      </c>
+      <c r="C154" t="s">
+        <v>349</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E154" t="s">
+        <v>345</v>
+      </c>
+      <c r="F154" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E155" t="s">
+        <v>345</v>
+      </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>360</v>
+      </c>
+      <c r="B156" t="s">
+        <v>55</v>
+      </c>
+      <c r="C156" t="s">
+        <v>349</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E156" t="s">
+        <v>345</v>
+      </c>
+      <c r="F156" t="s">
         <v>9</v>
       </c>
-      <c r="G153" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>360</v>
+      </c>
+      <c r="B157" t="s">
+        <v>74</v>
+      </c>
+      <c r="C157" t="s">
+        <v>349</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" t="s">
+        <v>345</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" t="s">
+        <v>468</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E158" t="s">
+        <v>345</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" t="s">
+        <v>471</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E159" t="s">
+        <v>345</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>147</v>
+      </c>
+      <c r="B160" t="s">
+        <v>474</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E160" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" t="s">
+        <v>478</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E161" t="s">
+        <v>345</v>
+      </c>
+      <c r="F161" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>480</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E162" t="s">
+        <v>345</v>
+      </c>
+      <c r="F162" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>495</v>
+      </c>
+      <c r="B163" t="s">
+        <v>494</v>
+      </c>
+      <c r="C163" t="s">
+        <v>349</v>
+      </c>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>495</v>
+      </c>
+      <c r="B164" t="s">
+        <v>496</v>
+      </c>
+      <c r="C164" t="s">
+        <v>349</v>
+      </c>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>495</v>
+      </c>
+      <c r="B165" t="s">
+        <v>502</v>
+      </c>
+      <c r="C165" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>495</v>
+      </c>
+      <c r="B166" t="s">
+        <v>497</v>
+      </c>
+      <c r="C166" t="s">
+        <v>349</v>
+      </c>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>487</v>
+      </c>
+      <c r="B167" t="s">
+        <v>484</v>
+      </c>
+      <c r="C167" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>487</v>
+      </c>
+      <c r="B168" t="s">
+        <v>485</v>
+      </c>
+      <c r="C168" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>487</v>
+      </c>
+      <c r="B169" t="s">
+        <v>486</v>
+      </c>
+      <c r="C169" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>487</v>
+      </c>
+      <c r="B170" t="s">
+        <v>498</v>
+      </c>
+      <c r="C170" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>487</v>
+      </c>
+      <c r="B171" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>487</v>
+      </c>
+      <c r="B172" t="s">
+        <v>499</v>
+      </c>
+      <c r="C172" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>487</v>
+      </c>
+      <c r="B173" t="s">
+        <v>488</v>
+      </c>
+      <c r="C173" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>487</v>
+      </c>
+      <c r="B174" t="s">
+        <v>489</v>
+      </c>
+      <c r="C174" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>487</v>
+      </c>
+      <c r="B175" t="s">
+        <v>492</v>
+      </c>
+      <c r="C175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>487</v>
+      </c>
+      <c r="B176" t="s">
+        <v>493</v>
+      </c>
+      <c r="C176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>487</v>
+      </c>
+      <c r="B177" t="s">
+        <v>501</v>
+      </c>
+      <c r="C177" t="s">
+        <v>349</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>487</v>
+      </c>
+      <c r="B178" t="s">
+        <v>490</v>
+      </c>
+      <c r="C178" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>487</v>
+      </c>
+      <c r="B179" t="s">
+        <v>491</v>
+      </c>
+      <c r="C179" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>487</v>
+      </c>
+      <c r="B180" t="s">
+        <v>503</v>
+      </c>
+      <c r="C180" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>487</v>
+      </c>
+      <c r="B181" t="s">
+        <v>504</v>
+      </c>
+      <c r="C181" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>487</v>
+      </c>
+      <c r="B182" t="s">
+        <v>505</v>
+      </c>
+      <c r="C182" t="s">
+        <v>349</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>487</v>
+      </c>
+      <c r="B183" t="s">
+        <v>507</v>
+      </c>
+      <c r="C183" t="s">
+        <v>349</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D44" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D45" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D46" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D48" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D49" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D51" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D56" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D57" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D96" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D59" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D60" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D61" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D64" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D65" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D66" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D68" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D152" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D69" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D70" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D71" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D72" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D73" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D74" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D153" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D75" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D76" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D77" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D78" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D80" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D81" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D82" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D83" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D84" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D85" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D86" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D87" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D89" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D90" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D91" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D92" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D93" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D88" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D94" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D95" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D100" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D101" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D102" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D103" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D104" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D105" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D106" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D107" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D108" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D109" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D110" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D111" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D114" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D115" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D116" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D120" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D122" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D123" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D124" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D125" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D126" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D128" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D129" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D130" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D131" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D132" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D133" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D134" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D135" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D136" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D137" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D138" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D139" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D140" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D149" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D141" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D142" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D145" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D146" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D148" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D150" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D151" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D36" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D63" r:id="rId115" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D37" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D41" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D38" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D40" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D39" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D14" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D17" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D13" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D5" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D4" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D27" r:id="rId129" xr:uid="{06A9CDD8-9339-4CF5-88AE-7C327D4A5A62}"/>
-    <hyperlink ref="D98" r:id="rId130" xr:uid="{ACB73367-1B81-4BD8-AA2C-7859A7F42844}"/>
-    <hyperlink ref="D53" r:id="rId131" xr:uid="{BD2B9BF9-32A7-4B7C-94A9-12FA506CB387}"/>
-    <hyperlink ref="D54" r:id="rId132" xr:uid="{4E154493-FD0A-4C92-BD27-6E113B61F92C}"/>
-    <hyperlink ref="D97" r:id="rId133" xr:uid="{732E76C7-AD8E-4452-B136-42201E8F0A7B}"/>
-    <hyperlink ref="D143" r:id="rId134" xr:uid="{DD4ACECC-0585-4C8E-B63F-4B8C2C2B9065}"/>
-    <hyperlink ref="D112" r:id="rId135" xr:uid="{E9CBCC88-558A-4B34-B7B3-C9AFF61FD9B7}"/>
-    <hyperlink ref="D113" r:id="rId136" xr:uid="{46449CF5-433F-46ED-9873-128A3B9A9B71}"/>
-    <hyperlink ref="D6" r:id="rId137" xr:uid="{26FBFD0C-B1CD-4B97-A078-1015CE440F61}"/>
-    <hyperlink ref="D10" r:id="rId138" xr:uid="{E4E7679C-404E-4888-B221-00A87D3DFCC5}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D47" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D48" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D49" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D50" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D51" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D55" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D56" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D100" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D62" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D63" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D65" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D66" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D156" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D73" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D74" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D75" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D76" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D77" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D78" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D157" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D79" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D80" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D83" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D84" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D85" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D86" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D87" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D88" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D89" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D90" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D91" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D93" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D94" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D95" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D96" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D97" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D92" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D99" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D104" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D105" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D106" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D107" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D108" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D109" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D110" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D111" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D112" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D115" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D118" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D119" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D120" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D124" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D126" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D127" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D128" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D129" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D130" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D132" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D133" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D134" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D135" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D136" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D137" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D138" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D139" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D140" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D141" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D143" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D144" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D153" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D145" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D146" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D149" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D150" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D152" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D154" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D155" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D40" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D67" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D45" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D42" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D44" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D43" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D15" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D18" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D14" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D30" r:id="rId124" xr:uid="{06A9CDD8-9339-4CF5-88AE-7C327D4A5A62}"/>
+    <hyperlink ref="D102" r:id="rId125" xr:uid="{ACB73367-1B81-4BD8-AA2C-7859A7F42844}"/>
+    <hyperlink ref="D57" r:id="rId126" xr:uid="{BD2B9BF9-32A7-4B7C-94A9-12FA506CB387}"/>
+    <hyperlink ref="D58" r:id="rId127" xr:uid="{4E154493-FD0A-4C92-BD27-6E113B61F92C}"/>
+    <hyperlink ref="D101" r:id="rId128" xr:uid="{732E76C7-AD8E-4452-B136-42201E8F0A7B}"/>
+    <hyperlink ref="D147" r:id="rId129" xr:uid="{DD4ACECC-0585-4C8E-B63F-4B8C2C2B9065}"/>
+    <hyperlink ref="D116" r:id="rId130" xr:uid="{E9CBCC88-558A-4B34-B7B3-C9AFF61FD9B7}"/>
+    <hyperlink ref="D117" r:id="rId131" xr:uid="{46449CF5-433F-46ED-9873-128A3B9A9B71}"/>
+    <hyperlink ref="D7" r:id="rId132" xr:uid="{26FBFD0C-B1CD-4B97-A078-1015CE440F61}"/>
+    <hyperlink ref="D11" r:id="rId133" xr:uid="{E4E7679C-404E-4888-B221-00A87D3DFCC5}"/>
+    <hyperlink ref="D20" r:id="rId134" xr:uid="{91719169-A1EF-4608-8EB1-EB45D310013B}"/>
+    <hyperlink ref="D25" r:id="rId135" xr:uid="{22B3D921-82A7-4DC9-939E-E1C5A38C9781}"/>
+    <hyperlink ref="D39" r:id="rId136" xr:uid="{D7BB0892-2657-40C0-B9B1-196657B25B71}"/>
+    <hyperlink ref="D98" r:id="rId137" xr:uid="{3227F225-24AF-4018-9D38-2A7BCCBB905E}"/>
+    <hyperlink ref="D158" r:id="rId138" xr:uid="{1EA0720B-EED1-4F63-9065-BEC94A60B586}"/>
+    <hyperlink ref="D159" r:id="rId139" xr:uid="{4795C8C6-A411-46F6-974C-004ABA288322}"/>
+    <hyperlink ref="D160" r:id="rId140" xr:uid="{E30EAB59-07BE-401E-BFE3-67DB7219D2E5}"/>
+    <hyperlink ref="D161" r:id="rId141" xr:uid="{27D130F3-AB32-44E3-AF46-DD0AB4C215C3}"/>
+    <hyperlink ref="D162" r:id="rId142" xr:uid="{5B4EC420-0596-4C7E-8316-6EF57EA7AF5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId139"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId143"/>
   <tableParts count="1">
-    <tablePart r:id="rId140"/>
+    <tablePart r:id="rId144"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECCB302B-B329-497F-B6B4-042AE8F9E14B}">
           <x14:formula1>
             <xm:f>meta!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I271</xm:sqref>
+          <xm:sqref>I2:I284</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22A5C488-559F-42E7-A17A-04288449D623}">
           <x14:formula1>
             <xm:f>meta!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F235:F249</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6857320C-10DD-4851-98FA-A3CA686293DC}">
-          <x14:formula1>
-            <xm:f>meta!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E209:E246</xm:sqref>
+          <xm:sqref>F248:F262 E222:E259</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DBDABFE-1DF2-4AED-A68C-8B4305BE5518}">
           <x14:formula1>
             <xm:f>rings!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F234</xm:sqref>
+          <xm:sqref>F2:F247</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB73C257-3035-40AA-AE1A-8025C392B562}">
           <x14:formula1>
             <xm:f>quadrants!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E208</xm:sqref>
+          <xm:sqref>E2:E221</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C819FCC-7756-432C-BFAF-57ECCF1CA732}">
           <x14:formula1>
             <xm:f>meta!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C221</xm:sqref>
+          <xm:sqref>C2:C234</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5292,10 +5909,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5303,7 +5920,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5311,7 +5928,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5319,15 +5936,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,13 +5973,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5370,10 +5987,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5381,10 +5998,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5392,10 +6009,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5403,10 +6020,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5432,10 +6049,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5443,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5451,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
